--- a/biology/Mycologie/Entoloma_sinuatum/Entoloma_sinuatum.xlsx
+++ b/biology/Mycologie/Entoloma_sinuatum/Entoloma_sinuatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entolome livide
 Entoloma sinuatum, autrefois Entoloma lividum d'où son nom vernaculaire l'Entolome livide, est une espèce de champignons toxiques du genre Entoloma, et de la famille des entolomatacées. Caractérisé par ses teintes beige blanchâtres et ses lames échancrées d'abord jaunâtres devenant ensuite rosâtres, c'est un toxique sévère faisant nombre d'intoxications chaque année. Il ressemble à plusieurs espèces comestibles.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Entoloma sinuatum (Bull.) P.Kumm.[1]. 
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus sinuatus Bull.[1].
-Synonymes
-Entoloma sinuatum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Entoloma sinuatum (Bull.) P.Kumm.. 
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus sinuatus Bull..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entoloma sinuatum a pour synonymes :
 Agaricus arenarius (Laterrade) Lév.
 Agaricus lividus var. roseus Cooke
 Agaricus lividus Bull.
@@ -540,45 +589,117 @@
 Rhodophyllus lividus (Quél.) Quél.
 Rhodophyllus sinuatus (Bull.) Quél.
 Rhodophyllus sinuatus (Bull.) Singer
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : entolome livide[2].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Entoloma_sinuatum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Entoloma_sinuatum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : entolome livide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un champignon qui présente un pied et un chapeau. Le pied est central. Sous le chapeau, l'hyménophore est constitué de lames. C'est une espèce  qui pousse généralement en groupes ou en cercles[3].
-Son chapeau mesure 3 à 20 cm. Il est convexe ou plat plus au moins mamelonné, déprimé à la maturité, avec une marge enroulée, sauf chez les vieux spécimens où elle devient sinueuse, non strié, non hygrophane. Il est de couleur gris clair à beige jaunâtre[4].
-L'hyménophore est fait de lames adnées à échancrées, inégales et libres, mais en général nettement échancrées autour du pied. Elles sont de couleur jaune de beurre (rarement blanches) puis rosâtres[4].
-Son stipe mesure 6 à 18 cm x 1 à 4 cm. Il est charnu, souvent en massue et irrégulièrement renflé vers la base, de couleur blanc puis crème[4].
-La chair est blanche. Sa saveur et son odeur sont farineuses[4],[3].
-Caractéristiques microscopiques
-Ses spores mesurent 8 à 11 µm x 7 à 9,5 µm, avec en général 6 angles[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un champignon qui présente un pied et un chapeau. Le pied est central. Sous le chapeau, l'hyménophore est constitué de lames. C'est une espèce  qui pousse généralement en groupes ou en cercles.
+Son chapeau mesure 3 à 20 cm. Il est convexe ou plat plus au moins mamelonné, déprimé à la maturité, avec une marge enroulée, sauf chez les vieux spécimens où elle devient sinueuse, non strié, non hygrophane. Il est de couleur gris clair à beige jaunâtre.
+L'hyménophore est fait de lames adnées à échancrées, inégales et libres, mais en général nettement échancrées autour du pied. Elles sont de couleur jaune de beurre (rarement blanches) puis rosâtres.
+Son stipe mesure 6 à 18 cm x 1 à 4 cm. Il est charnu, souvent en massue et irrégulièrement renflé vers la base, de couleur blanc puis crème.
+La chair est blanche. Sa saveur et son odeur sont farineuses,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Entoloma_sinuatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 8 à 11 µm x 7 à 9,5 µm, avec en général 6 angles.
 </t>
         </is>
       </c>
